--- a/Meteorological Data/Temperature Monthly.xlsx
+++ b/Meteorological Data/Temperature Monthly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/Meteorological Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4DBB64A54DDB1B405E381765D817954F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1670FC3F-CD3E-4A91-B352-8B1AA8CC20DB}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4DBB64A54DDB1B405E381765D817954F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC13F98D-985C-4F86-A611-49E7D03341B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Month</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geometric mean</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -385,158 +381,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44805</v>
       </c>
       <c r="B2" s="1">
-        <v>28.711303809264098</v>
-      </c>
-      <c r="C2" s="1">
         <v>28.869505694444452</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44835</v>
       </c>
       <c r="B3" s="3">
-        <v>25.015129063798923</v>
-      </c>
-      <c r="C3" s="3">
         <v>25.260606317204278</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44866</v>
       </c>
       <c r="B4" s="3">
-        <v>21.869290931030797</v>
-      </c>
-      <c r="C4" s="3">
         <v>21.978796249999991</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44896</v>
       </c>
       <c r="B5" s="3">
-        <v>14.999524058254536</v>
-      </c>
-      <c r="C5" s="3">
         <v>15.40644925714286</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44927</v>
       </c>
       <c r="B6" s="3">
-        <v>15.292076977880756</v>
-      </c>
-      <c r="C6" s="3">
         <v>15.695140241935485</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44958</v>
       </c>
       <c r="B7" s="3">
-        <v>17.11997534601937</v>
-      </c>
-      <c r="C7" s="3">
         <v>17.347007142857162</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44986</v>
       </c>
       <c r="B8" s="3">
-        <v>19.321642321107959</v>
-      </c>
-      <c r="C8" s="3">
         <v>19.487173252688166</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45017</v>
       </c>
       <c r="B9" s="3">
-        <v>21.905279789314196</v>
-      </c>
-      <c r="C9" s="3">
         <v>22.057447083333322</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45047</v>
       </c>
       <c r="B10" s="3">
-        <v>24.876190396393213</v>
-      </c>
-      <c r="C10" s="3">
         <v>25.074225940860263</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45078</v>
       </c>
       <c r="B11" s="3">
-        <v>27.851178507611412</v>
-      </c>
-      <c r="C11" s="3">
         <v>27.936160694444393</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45108</v>
       </c>
       <c r="B12" s="3">
-        <v>29.075165074828558</v>
-      </c>
-      <c r="C12" s="3">
         <v>29.196735483870974</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45139</v>
       </c>
       <c r="B13" s="3">
-        <v>28.838703038827251</v>
-      </c>
-      <c r="C13" s="3">
         <v>28.946756854838718</v>
       </c>
     </row>
